--- a/probability/Mn/2His_1Glu/threshold.xlsx
+++ b/probability/Mn/2His_1Glu/threshold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241113_Metal_Intaller_Data_Final\MN\2His_1Glu\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250414_Final\Mn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70145274-B7FA-4FBD-ACE1-27F2BA09F1F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22466A9-9179-40BE-885D-D02F10979B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,10 +499,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="2">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
